--- a/数据整理/stocks/A股/上证主板/600009-上海机场.xlsx
+++ b/数据整理/stocks/A股/上证主板/600009-上海机场.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5267,4 +5268,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4340</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002497</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009590</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>350006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天治稳健双盈债券</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600009-上海机场.xlsx
+++ b/数据整理/stocks/A股/上证主板/600009-上海机场.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5704,4 +5705,1120 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3475</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2832</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2523</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000167</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>53.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>55.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008077</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>350006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天治稳健双盈债券</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008137</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>960009</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600009-上海机场.xlsx
+++ b/数据整理/stocks/A股/上证主板/600009-上海机场.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6821,4 +6822,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600009-上海机场.xlsx
+++ b/数据整理/stocks/A股/上证主板/600009-上海机场.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6830,7 +6831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6841,17 +6842,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6861,14 +6882,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.609999999999999</v>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6877,14 +6920,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.16</v>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8796</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -6893,14 +6958,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>60</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.45</v>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6909,13 +6996,1099 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2429</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2357</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>35.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>42.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000708</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>42.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>34.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>64</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>38.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600009-上海机场.xlsx
+++ b/数据整理/stocks/A股/上证主板/600009-上海机场.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7987,7 +7988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7998,17 +7999,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8018,14 +8039,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.09</v>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -8034,14 +8077,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.609999999999999</v>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -8050,14 +8115,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.16</v>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4902</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -8066,14 +8153,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.45</v>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4841</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -8082,13 +8191,2519 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3101</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7954</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5523</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4472</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4302</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012198</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005317</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012199</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005318</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>64</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>38.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600009-上海机场.xlsx
+++ b/数据整理/stocks/A股/上证主板/600009-上海机场.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10586,7 +10587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10597,17 +10598,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10617,14 +10638,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>67</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.79</v>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1593</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -10633,14 +10676,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.09</v>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -10649,14 +10714,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.609999999999999</v>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3678</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -10665,14 +10752,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.16</v>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>131.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7444</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -10681,14 +10790,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.45</v>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5638</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -10697,13 +10828,3331 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4272</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3621</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8626</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>53.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>45.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7493</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5636</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4963</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2909</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2731</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2428</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014045</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012198</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012387</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004772</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012388</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>31.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012199</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>31.59</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003176</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>德邦景颐债券A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>40.03</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>40.14</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004773</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>40.14</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003177</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>德邦景颐债券C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>89</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>64</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>38.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600009-上海机场.xlsx
+++ b/数据整理/stocks/A股/上证主板/600009-上海机场.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="D2" t="n">
-        <v>26.16</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>17.79</v>
+        <v>26.16</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>9.09</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>8.609999999999999</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>7.16</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>13.45</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>60</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>64</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>38.55</v>
       </c>
     </row>
@@ -600,6 +617,7306 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H192"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>122.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0502</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2523</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9649</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4618</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>51.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4216</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3876</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3717</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3516</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2631</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2554</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>45.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0539</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9784</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9436</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商优质成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8805</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8510</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8301</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014228</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7523</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7463</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6529</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013385</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信澳优势价值混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6195</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012234</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安聚弘精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6093</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4936</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4472</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商景气精选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012437</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3648</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3577</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3118</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3026</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015039</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2759</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2571</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2571</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安汇智精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信银利精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2259</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2185</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1961</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安升级主题混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商景气精选股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信澳价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城双动力混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015561</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长城双动力混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>信澳新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>54.87</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014818</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>69.63</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012235</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华安聚弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013386</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>信澳优势价值混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013259</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>015346</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000556</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国投瑞银新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002358</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011558</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>天弘宁弘六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011616</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013983</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中金稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014819</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013554</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>信澳远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>48.39</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>014229</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>57.23</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>015768</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>长信内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>013555</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>信澳远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>48.39</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>62.55</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011559</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>天弘宁弘六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>信澳价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>000557</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>国投瑞银新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>016290</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>012438</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>014049</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>39.66</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中加科鑫混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>016563</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>信澳新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>013984</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>中金稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>014572</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>长信银利精选混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>57.23</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>014050</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>中银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>69.63</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>57.23</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>中加科鑫混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>014976</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>华安升级主题混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>014045</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>银华积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>015946</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>015947</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4031,7 +11348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6629,7 +13946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7785,7 +15102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8901,7 +16218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9337,7 +16654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11673,7 +18990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
